--- a/rawdata/figure4/figure4_long.xlsx
+++ b/rawdata/figure4/figure4_long.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrs/Documents/pa14_nodrug/submit/rawdata/figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A078A4DB-38CB-B148-A5B6-EF9FFA4313BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D514DE-D8EE-0643-9999-EC6934FA57D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{66A0D31F-4E30-0E47-A9B9-4874FCE1DD90}"/>
+    <workbookView xWindow="4980" yWindow="840" windowWidth="28040" windowHeight="17440" xr2:uid="{66A0D31F-4E30-0E47-A9B9-4874FCE1DD90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="24">
   <si>
     <t>morA</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>strainmedia</t>
+  </si>
+  <si>
+    <t>9.25.2021</t>
   </si>
 </sst>
 </file>
@@ -476,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC779D4-EB18-9449-B2B3-155A303279FF}">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3251,7 +3254,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="2" t="str">
-        <f t="shared" ref="D131:D171" si="2">CONCATENATE(B131,C131)</f>
+        <f t="shared" ref="D131:D193" si="2">CONCATENATE(B131,C131)</f>
         <v>ancestorall</v>
       </c>
       <c r="E131" s="2">
@@ -4103,28 +4106,1204 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E172" s="2"/>
+      <c r="A172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorall</v>
+      </c>
+      <c r="E172" s="2">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E173" s="2"/>
+      <c r="A173" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorall</v>
+      </c>
+      <c r="E173" s="2">
+        <v>3</v>
+      </c>
+      <c r="F173" s="1">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E174" s="2"/>
+      <c r="A174" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorglucose</v>
+      </c>
+      <c r="E174" s="2">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E175" s="2"/>
+      <c r="A175" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorglucose</v>
+      </c>
+      <c r="E175" s="2">
+        <v>2</v>
+      </c>
+      <c r="F175" s="1">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E177" s="2"/>
-    </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E178" s="2"/>
-    </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E179" s="2"/>
+      <c r="A176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorglucose</v>
+      </c>
+      <c r="E176" s="2">
+        <v>3</v>
+      </c>
+      <c r="F176" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D177" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestoraminoacids</v>
+      </c>
+      <c r="E177" s="2">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestoraminoacids</v>
+      </c>
+      <c r="E178" s="2">
+        <v>2</v>
+      </c>
+      <c r="F178" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestoraminoacids</v>
+      </c>
+      <c r="E179" s="2">
+        <v>3</v>
+      </c>
+      <c r="F179" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorlactate</v>
+      </c>
+      <c r="E180" s="2">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorlactate</v>
+      </c>
+      <c r="E181" s="2">
+        <v>2</v>
+      </c>
+      <c r="F181" s="1">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D182" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>ancestorlactate</v>
+      </c>
+      <c r="E182" s="2">
+        <v>3</v>
+      </c>
+      <c r="F182" s="1">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAall</v>
+      </c>
+      <c r="E183" s="2">
+        <v>1</v>
+      </c>
+      <c r="F183" s="1">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAall</v>
+      </c>
+      <c r="E184" s="2">
+        <v>2</v>
+      </c>
+      <c r="F184" s="1">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAall</v>
+      </c>
+      <c r="E185" s="2">
+        <v>3</v>
+      </c>
+      <c r="F185" s="1">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D186" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAglucose</v>
+      </c>
+      <c r="E186" s="2">
+        <v>1</v>
+      </c>
+      <c r="F186" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D187" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAglucose</v>
+      </c>
+      <c r="E187" s="2">
+        <v>2</v>
+      </c>
+      <c r="F187" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D188" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAglucose</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAaminoacids</v>
+      </c>
+      <c r="E189" s="2">
+        <v>1</v>
+      </c>
+      <c r="F189" s="1">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAaminoacids</v>
+      </c>
+      <c r="E190" s="2">
+        <v>2</v>
+      </c>
+      <c r="F190" s="1">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAaminoacids</v>
+      </c>
+      <c r="E191" s="2">
+        <v>3</v>
+      </c>
+      <c r="F191" s="1">
+        <v>-0.43</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D192" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAlactate</v>
+      </c>
+      <c r="E192" s="2">
+        <v>1</v>
+      </c>
+      <c r="F192" s="1">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D193" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>morAlactate</v>
+      </c>
+      <c r="E193" s="2">
+        <v>2</v>
+      </c>
+      <c r="F193" s="1">
+        <v>-0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D194" s="2" t="str">
+        <f t="shared" ref="D194:D213" si="3">CONCATENATE(B194,C194)</f>
+        <v>morAlactate</v>
+      </c>
+      <c r="E194" s="2">
+        <v>3</v>
+      </c>
+      <c r="F194" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf all</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1</v>
+      </c>
+      <c r="F195" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf all</v>
+      </c>
+      <c r="E196" s="2">
+        <v>2</v>
+      </c>
+      <c r="F196" s="1">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D197" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf all</v>
+      </c>
+      <c r="E197" s="2">
+        <v>3</v>
+      </c>
+      <c r="F197" s="1">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D198" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf glucose</v>
+      </c>
+      <c r="E198" s="2">
+        <v>1</v>
+      </c>
+      <c r="F198" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D199" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf glucose</v>
+      </c>
+      <c r="E199" s="2">
+        <v>2</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D200" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAhalf glucose</v>
+      </c>
+      <c r="E200" s="2">
+        <v>3</v>
+      </c>
+      <c r="F200" s="1">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D201" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAdouble aminoacids</v>
+      </c>
+      <c r="E201" s="2">
+        <v>1</v>
+      </c>
+      <c r="F201" s="1">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A202" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAdouble aminoacids</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2</v>
+      </c>
+      <c r="F202" s="1">
+        <v>-0.22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>morAdouble aminoacids</v>
+      </c>
+      <c r="E203" s="2">
+        <v>3</v>
+      </c>
+      <c r="F203" s="1">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qall</v>
+      </c>
+      <c r="E204" s="2">
+        <v>1</v>
+      </c>
+      <c r="F204" s="1">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qall</v>
+      </c>
+      <c r="E205" s="2">
+        <v>2</v>
+      </c>
+      <c r="F205" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A206" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qall</v>
+      </c>
+      <c r="E206" s="2">
+        <v>3</v>
+      </c>
+      <c r="F206" s="1">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A207" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D207" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qglucose</v>
+      </c>
+      <c r="E207" s="2">
+        <v>1</v>
+      </c>
+      <c r="F207" s="1">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A208" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D208" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qglucose</v>
+      </c>
+      <c r="E208" s="2">
+        <v>2</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D209" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qglucose</v>
+      </c>
+      <c r="E209" s="2">
+        <v>3</v>
+      </c>
+      <c r="F209" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D210" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qaminoacids</v>
+      </c>
+      <c r="E210" s="2">
+        <v>1</v>
+      </c>
+      <c r="F210" s="1">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qaminoacids</v>
+      </c>
+      <c r="E211" s="2">
+        <v>2</v>
+      </c>
+      <c r="F211" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D212" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qaminoacids</v>
+      </c>
+      <c r="E212" s="2">
+        <v>3</v>
+      </c>
+      <c r="F212" s="1">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D213" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>lasR R216Qlactate</v>
+      </c>
+      <c r="E213" s="2">
+        <v>1</v>
+      </c>
+      <c r="F213" s="1">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D214" s="2" t="str">
+        <f t="shared" ref="D214:D226" si="4">CONCATENATE(B214,C214)</f>
+        <v>lasR R216Qlactate</v>
+      </c>
+      <c r="E214" s="2">
+        <v>3</v>
+      </c>
+      <c r="F214" s="1">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440all</v>
+      </c>
+      <c r="E215" s="2">
+        <v>1</v>
+      </c>
+      <c r="F215" s="1">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440all</v>
+      </c>
+      <c r="E216" s="2">
+        <v>2</v>
+      </c>
+      <c r="F216" s="1">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440all</v>
+      </c>
+      <c r="E217" s="2">
+        <v>3</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D218" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440glucose</v>
+      </c>
+      <c r="E218" s="2">
+        <v>1</v>
+      </c>
+      <c r="F218" s="1">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D219" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440glucose</v>
+      </c>
+      <c r="E219" s="2">
+        <v>2</v>
+      </c>
+      <c r="F219" s="1">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440glucose</v>
+      </c>
+      <c r="E220" s="2">
+        <v>3</v>
+      </c>
+      <c r="F220" s="1">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D221" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440aminoacids</v>
+      </c>
+      <c r="E221" s="2">
+        <v>1</v>
+      </c>
+      <c r="F221" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D222" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440aminoacids</v>
+      </c>
+      <c r="E222" s="2">
+        <v>2</v>
+      </c>
+      <c r="F222" s="1">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D223" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440aminoacids</v>
+      </c>
+      <c r="E223" s="2">
+        <v>3</v>
+      </c>
+      <c r="F223" s="1">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D224" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440lactate</v>
+      </c>
+      <c r="E224" s="2">
+        <v>1</v>
+      </c>
+      <c r="F224" s="1">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D225" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440lactate</v>
+      </c>
+      <c r="E225" s="2">
+        <v>2</v>
+      </c>
+      <c r="F225" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D226" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ΔPA14_45920..PA14_46440lactate</v>
+      </c>
+      <c r="E226" s="2">
+        <v>3</v>
+      </c>
+      <c r="F226" s="1">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E227" s="2"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E228" s="2"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E229" s="2"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E230" s="2"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E231" s="2"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E232" s="2"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E233" s="2"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E236" s="2"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E237" s="2"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E238" s="2"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E239" s="2"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E240" s="2"/>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E241" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
